--- a/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="345">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>本プロファイルはConditionリソースに対して、患者の健康状態に関するデータを送受信するための共通の制約と拡張を定めたものである。</t>
+    <t>このプロファイルはConditionリソースに対して、患者の健康状態に関するデータを送受信するための共通の制約と拡張を定めたものである。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -258,15 +261,11 @@
     <t>*</t>
   </si>
   <si>
-    <t>Detailed information about conditions, problems or diagnoses 身体的状態、問題、診断に関する詳細情報</t>
+    <t>Detailed information about conditions, problems or diagnoses. 患者の臨床状態、問題、または診断に関する詳細な情報</t>
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.
-患者の健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(conditon)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床医学的概念(clinical concept)を表現する。</t>
-  </si>
-  <si>
-    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(condition)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床的概念(clinical concept)。</t>
   </si>
   <si>
     <t>Event</t>
@@ -290,7 +289,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -384,7 +383,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -478,12 +477,10 @@
     <t>External Ids for this condition</t>
   </si>
   <si>
-    <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.
-実行者または他のシステムによってこの条件に割り当てられたビジネス識別子。リソースが更新され、サーバーからサーバーに伝送されるときにも変化しない。</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.
-これはビジネス識別子であり、リソース識別子ではない。全インスタンスを通して識別子は単一インスタンスを指し示すことがベストである。しかし、異なるリソースタイプの複数のリソースインスタンスに同じ識別子を割り当てることも稀にはある。例えば、重複するPatientリソースインスタンスとPersonリソースインスタンスは同じソーシャルセキュリティー番号を共有することなどである。</t>
+    <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
   </si>
   <si>
     <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
@@ -505,32 +502,14 @@
 </t>
   </si>
   <si>
-    <t>active | recurrence | relapse | inactive | remission | resolved</t>
+    <t>active | recurrence | relapse | inactive | remission | resolved （アクティブ | 再発 | 再燃 | インアクティブ | 寛解 | 完治）</t>
   </si>
   <si>
     <t>The clinical status of the condition.
-臨床的状態のステータス（アクティブか否かなど）。</t>
-  </si>
-  <si>
-    <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.
-【JP-CORE】
-codeとしてhttp://terminology.hl7.org/CodeSystem/condition-clinicalでは
-Lv0 active: 状態による症状が現在継続している、または状態を裏付ける所見などが存在していることを指す。
-Lv1 recurrence: 過去に一回解消した問題が再発していることを指す。
-Lv1 relapse: 過去に改善または寛解を得た状態が再度悪化していることを指す。
-Lv0 inactive: 状態による症状が現在存在していない、または状態を裏付ける所見などが存在していないことを指す。
-Lv1 remission: 状態による症状が現在存在していないが、再発のリスクを有している場合を指す。
-Lv1 resolved: 状態による症状が現在存在していおらず、再発のリスクを考慮する必要がない場合を指す。
-上記が入力されるが、JP-COREでは保険病名の表現を可能とするため、上記情報に加え下記を表現可能とするか否か検討のひつようがある。別個にclinicaloutcomeを作成する検討の必要性がある。
-退院時転帰
-1 =資源病名が治癒したと判断される場合
-2 =資源病名が軽快したと判断される場合
-3 =資源病名が寛解したと判断される場合
-4 =資源病名が不変と判断される場合
-5 =資源病名が増悪したと判断される場合
-6 =資源病名による死亡
-7 =資源病名以外による死亡
-9 =その他(検査入院含む)</t>
+この患者状態の臨床的ステータス（アクティブか否かなど）</t>
+  </si>
+  <si>
+    <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
     <t>required</t>
@@ -565,24 +544,15 @@
     <t>Condition.verificationStatus</t>
   </si>
   <si>
-    <t>unconfirmed | provisional | differential | confirmed | refuted | entered-in-error</t>
+    <t>unconfirmed | provisional | differential | confirmed | refuted | entered-in-error（十分に確認されていない | 暫定的 | 鑑別的 | 十分な根拠で存在 | 十分な根拠で否定 | 誤記載）</t>
   </si>
   <si>
     <t>The verification status to support the clinical status of the condition.
-clinicalStatus の確からしさ。</t>
+ この患者状態が存在するかどうかの検証状況。</t>
   </si>
   <si>
     <t>verificationStatus is not required.  For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.
-The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.
-【JP-CORE】
-codeとしてhttp://terminology.hl7.org/CodeSystem/condition-ver-statusを用い、具体的には
-Lv0 unconfirmed: 該当する状態の存在を確定とは言い切れないことを示す。
-Lv1 provisional: 該当する状態の存在は暫定的であることを示す。
-Lv1 differential: 該当する状態を鑑別するべき意図で記載されたことを示す。
-Lv0 confirmed: 該当する状態は十分な根拠によって確定されたものであることを示す。
-Lv0 refuted: 該当する状態は十分な根拠によって除外されたものであることを示す。
-Lv0 entered-in-error: 有効でない入力であることを示す。
-上記が入力される。</t>
+The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
@@ -611,38 +581,18 @@
     <t>Condition.category</t>
   </si>
   <si>
-    <t>problem-list-item | encounter-diagnosis | health-concern</t>
-  </si>
-  <si>
-    <t>A category assigned to the condition.
-本状態のカテゴリ。プロブレムリスト項目、受診時診断、健康問題、など。</t>
-  </si>
-  <si>
-    <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.
-カテゴリー情報は多くの場合、高度にコンテキストに依存しているので、他のコンテキストでは十分にカテゴリーとして区分されていないか、あまり役に立たないように見える場合がある。
-【JP-CORE】
-encounter diagnosisの概念を残すかどうかについて検討の余地がある。
-[案1]
-codeとしてhttp://terminology.hl7.org/CodeSystem/condition-categoryを参考にするが、保険登録病名として反映可能かどうかの情報を含める。具体的には、
-problem-list-item-available-as-claim-diagnosis: 時間的な幅をもってプロブレムリストの一つとして扱われているもののうち、保険病名として反映すべきものを示す。
-problem-list-item-unavailable-as-claim-diagnosis: 時間的な幅をもってプロブレムリストの一つとして扱われているもののうち、保険病名として反映すべきでないものを示す。
-encounter-diagnosis-available-as-claim-diagnosis: 時間的な幅を持たず瞬間的な判断根拠によって示された状態表現のうち、保険病名として反映すべきものを示す。
-encounter-diagnosis: 時間的な幅を持たず瞬間的な判断根拠によって示された状態表現のうち、保険病名として反映すべきでないものを示す。
-上記が入力される。
-[案2]
-保険登録病名として反映可能かどうかの情報のみを示す。具体的には、
-available-as-claim-diagnosis: 保険病名として反映すべきものを示す。
-unavailable-as-claim-diagnosis: 保険病名として反映すべきでないものを示す。
-上記が入力される。
-＊US Coreに倣い、problem-list-item | encounter-diagnosis | health-concernとしている。カーディナリティを1..1としているため、このいずれかが入力されることになるため要検討です。</t>
+    <t>problem-list-item | encounter-diagnosis（プロブレムリスト | 一時的な診断）</t>
+  </si>
+  <si>
+    <t>A category assigned to the condition.</t>
+  </si>
+  <si>
+    <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A category assigned to the condition.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/condition-category</t>
   </si>
   <si>
@@ -661,26 +611,19 @@
     <t>Condition.severity</t>
   </si>
   <si>
-    <t>Subjective severity of condition　状態の主観的な重症度</t>
+    <t>Subjective severity of condition. この患者状態の重症度。このプロファイルは、HL70421 Severity of Illness Codeで表現</t>
   </si>
   <si>
     <t>A subjective assessment of the severity of the condition as evaluated by the clinician.
-医師によって評価された本状態の主観的な重症度。</t>
+医療者によって評価されたこの患者状態の重症度。</t>
   </si>
   <si>
     <t>Coding of the severity with a terminology is preferred, where possible.
-可能な限り、ターミノロジーを用いて重症度をコーディングすること。
-【JP-CORE】
-codeとしてhttp://snomed.info/sctに定義された下記が用いられる。
-code:24484000 Display:Severe
-code:6736007 Display:Moderate
-code:255604002 Display:Mild</t>
-  </si>
-  <si>
-    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+可能な限り、ターミノロジを用いて重症度をコーディングすることが好ましい。
+ このプロファイルではHL70421 Severity of Illness Code（MI 軽度, MO 中度, SE 重度）を採用。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ConditionSeverity_VS</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -705,19 +648,10 @@
 </t>
   </si>
   <si>
-    <t>Identification of the condition, problem or diagnosis　状態、問題、診断の識別情報</t>
-  </si>
-  <si>
-    <t>Identification of the condition, problem or diagnosis.
-本状態の種類を表すコード。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。
-【JP-CORE】
-＊value-setに下記も含める前提として、カーディナリティを1..1としている
-sct:160245001  No current problems or disability
-sct:3219008  Disease type AND/OR category unknown</t>
+    <t>Identification of the condition, problem or diagnosis. この患者状態の識別コード</t>
+  </si>
+  <si>
+    <t>Identification of the condition, problem or diagnosis.</t>
   </si>
   <si>
     <t>0..1 to account for primarily narrative only resources.</t>
@@ -762,20 +696,13 @@
     <t>Condition.bodySite</t>
   </si>
   <si>
-    <t>Anatomical location, if relevant　もし関連しているのがあれば人体部位</t>
-  </si>
-  <si>
-    <t>The anatomical location where this condition manifests itself.
-本状態が存在する人体部位。</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.
-Condition.codeにあるコードでは暗黙的に部位が不明な場合にのみ使用する。BodySiteリソースの属性が必要な場合（たとえば、個別に部位を識別して追跡するため）、標準の拡張extension[bodySite]（extension-bodysite.html）を使用する。要約したコード（ある程度抽象化された部位を示すコードの意）、または非常に正確な場所の定義への参照、あるいはその両方である可能性がある。
-【例】
-codeとしてhttp://snomed.info/sctに定義された 442083009 (Anatomical or acquired body structure)が用いられる。
-例
-code:344001 Display:Ankle
-code:955009 Display:Bronchus</t>
+    <t>Anatomical location, if relevant. もし関連するのであれば、その人体部位</t>
+  </si>
+  <si>
+    <t>The anatomical location where this condition manifests itself.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -800,21 +727,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
-    <t>Who has the condition?　誰がこの状態の人か</t>
-  </si>
-  <si>
-    <t>Indicates the patient or group who the condition record is associated with.
-本状態に関連付けられる患者やグループ。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-CORE】
-必須(Cardinality 1...1)とする。</t>
+    <t>Who has the condition? 誰がこの状態を有するか</t>
+  </si>
+  <si>
+    <t>Indicates the patient or group who the condition record is associated with.</t>
   </si>
   <si>
     <t>Group is typically used for veterinary or public health use cases.</t>
@@ -835,21 +755,18 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
-    <t>Encounter created as part of　受診詳細情報</t>
+    <t>Encounter created as part of. この患者状態の記録が作成された受療の状況（外来、入院、救急、在宅など）</t>
   </si>
   <si>
     <t>The Encounter during which this Condition was created or to which the creation of this record is tightly associated.
-本状態が記録されたり、このレコードの作成と密接に関連づけられる受診詳細情報。</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. This record indicates the encounter this particular record is associated with.  In the case of a "new" diagnosis reflecting ongoing/revised information about the condition, this might be distinct from the first encounter in which the underlying condition was first "known".
-これは通常、イベントが発生したエンカウンターですが、場合によっては病状状態は、エンカウンターが完了する前または後に開始されているる場合がある。それでもエンカウンターのコンテキストに関連付けられる。このレコードは、この特定のレコードが関連付けられているエンカウンターを示す。状態に関する進行中/新しい情報を反映した「新しい」診断の場合には、それまでに存在していた状態がはじめて「知られた」最初のエンカウンターとは異なる可能性がある。
-【JP仕様】
-入院外来の区別や所在場所、担当診療科の情報に使用する。付加的な情報であり、1...1には制約しない。</t>
+この患者状態の記録やレコード作成に関連する受療の状況（外来、入院、救急、在宅など）</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. This record indicates the encounter this particular record is associated with.  In the case of a "new" diagnosis reflecting ongoing/revised information about the condition, this might be distinct from the first encounter in which the underlying condition was first "known".</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -871,11 +788,11 @@
 AgePeriodRangestring</t>
   </si>
   <si>
-    <t>Estimated or actual date,  date-time, or age　推定される、または実際に始まった日付または日時または年齢</t>
+    <t>Estimated or actual date,  date-time, or age. この患者状態のオンセット。推定もしくは実際の日付、日時、年齢</t>
   </si>
   <si>
     <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.
-臨床医の判断における、本状態が始まったと推定される、または実際に始まった日付または日時。</t>
+臨床医の判断における、本状態が始まったと推定される、または実際に始まった日または日時。</t>
   </si>
   <si>
     <t>Age is generally used when the patient reports an age at which the Condition began to occur.
@@ -897,15 +814,13 @@
     <t>Condition.abatement[x]</t>
   </si>
   <si>
-    <t>When in resolution/remission　治癒（解決）または寛解した時期</t>
-  </si>
-  <si>
-    <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.
-状態が解決した、または寛解した日付または推定日。これは、「寛解」または「治癒（解決）」のどちらかを使うには意味が重すぎることから「軽快」と呼ばれる-状態は実際には治癒していないが、軽快にすることはできる。</t>
-  </si>
-  <si>
-    <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.
-多くの場合、解決と寛解の間に明確な区別はない。年齢は一般的に、患者が状態が緩和した年齢を報告するケースで使用される。軽快要素がない場合、状態が解決したか、寛解に入ったかは不明である。アプリケーションとユーザーは通常、状態がまだ有効であると想定する必要があ。 abatementStringが存在する場合、それは状態が軽快されることを意味する。</t>
+    <t>When in resolution/remission. この状態はいつ治癒／寛解／軽快したか</t>
+  </si>
+  <si>
+    <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.</t>
+  </si>
+  <si>
+    <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.</t>
   </si>
   <si>
     <t xml:space="preserve">con-4
@@ -925,11 +840,11 @@
 </t>
   </si>
   <si>
-    <t>Date record was first recorded　記録が最初に記録された日付</t>
+    <t>Date record was first recorded. この患者状態が初めて記録された日時</t>
   </si>
   <si>
     <t>The recordedDate represents when this particular Condition record was created in the system, which is often a system-generated date.
-レコードがシステムで作成された日時。多くの場合、システムで生成された日付。</t>
+この患者状態の記録がシステムで作成された日時を表し、多くの場合、システムが生成した日付である。</t>
   </si>
   <si>
     <t>REL-11</t>
@@ -944,21 +859,15 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>Who recorded the condition　この状態を記録した人</t>
+    <t>Who recorded the condition. 誰がこの患者状態を記録したか</t>
   </si>
   <si>
     <t>Individual who recorded the record and takes responsibility for its content.
-本記録を記録し、その内容に責任を負う個人。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-CORE】
-FHIR規定仕様においてCardinalityで0を許容しているのは記載内容の責任者と記録者が異なるケースを想定していると考えられるが、現状の診療で一般的に行われるカルテ記載形式を考慮し、Cardinality 1...1を検討するべきとも考えれるため、基本的には本要素には値を設定する。</t>
+この患者状態を記録しその内容に責任を持つ個人。</t>
   </si>
   <si>
     <t>.participation[typeCode=AUT].role</t>
@@ -970,17 +879,15 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t>Person who asserts this condition　この状態があるというした人</t>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole)
+</t>
+  </si>
+  <si>
+    <t>Person who asserts this condition. この患者状態の情報源</t>
   </si>
   <si>
     <t>Individual who is making the condition statement.
-本状態があるという事実を作成した個人。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-CORE】
-通常の診療では判断した個人と記載した個人は同一であるケースが一般的であり、既存の情報の転記などの際に、記載者と状態の存在を判断した個人が異なる場合に記入が必要となると考えられる。</t>
+この患者状態に関する情報の発生源または取得元。</t>
   </si>
   <si>
     <t>REL-7.1 identifier + REL-7.12 type code</t>
@@ -999,11 +906,11 @@
 </t>
   </si>
   <si>
-    <t>Stage/grade, usually assessed formally　ステージやグレードで、普通は正式に評価されたもの。</t>
+    <t>Stage/grade, usually assessed formally. この患者状態のステージやグレード。通常は正式に評価されたもの</t>
   </si>
   <si>
     <t>Clinical stage or grade of a condition. May include formal severity assessments.
-病状の臨床病期またはグレード。正式な重症度評価が含まれる場合がある。</t>
+病状の臨床病期またはグレード。正式な重症度評価を含む場合がある。</t>
   </si>
   <si>
     <t>con-1:Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}
@@ -1016,6 +923,10 @@
     <t>Condition.stage.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -1079,7 +990,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
+    <t xml:space="preserve">Reference(ClinicalImpression|http://jpfhir.jp/fhir/core/StructureDefinition/JP_DiagnosticReport_Common|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common)
 </t>
   </si>
   <si>
@@ -1113,19 +1024,14 @@
     <t>Condition.evidence</t>
   </si>
   <si>
-    <t>Supporting evidence　事実の支持する証拠</t>
+    <t>Supporting evidence. 患者状態の存在に関する根拠</t>
   </si>
   <si>
     <t>Supporting evidence / manifestations that are the basis of the Condition's verification status, such as evidence that confirmed or refuted the condition.
-状態を確認または反駁した証拠など、状態の検証ステータスの基礎となる裏付けとなる証拠/兆候。</t>
-  </si>
-  <si>
-    <t>The evidence may be a simple list of coded symptoms/manifestations, or references to observations or formal assessments, or both.
-エビデンスは、コード化された症状/症状の単純なリスト、または観察または正式な評価への参照、あるいはその両方である可能性がある。
-【仕様例】
-codeとしてhttp://snomed.info/sctに定義された 404684003 (Clinical finding)が用いられる。
-例
-code:1735007 Display:Thrill</t>
+患者状態を確認または否定した証拠など、状態の検証ステータスの裏付けとなる症状や兆候。</t>
+  </si>
+  <si>
+    <t>The evidence may be a simple list of coded symptoms/manifestations, or references to observations or formal assessments, or both.</t>
   </si>
   <si>
     <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
@@ -1192,16 +1098,11 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the Condition　状態に関する追加情報</t>
-  </si>
-  <si>
-    <t>Additional information about the Condition. This is a general notes/comments entry  for description of the Condition, its diagnosis and prognosis.
-態に関する追加情報。これは、状態、その診断および予後の説明のための一般的なメモ/コメントエントリ。</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
-構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
-*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
+    <t>Additional information about the Condition. この患者状態に関する追加情報</t>
+  </si>
+  <si>
+    <t>Additional information about the Condition. This is a general notes/comments entry for description of the Condition, its diagnosis and prognosis.
+この患者状態に関する追加情報。これは、状態の説明、診断、予後に関するメモやコメントである。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1459,55 +1360,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1527,268 +1428,268 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="85.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.70703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.6171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="68.20703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="222.09765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="222.1015625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>84</v>
@@ -1803,10 +1704,10 @@
         <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -1815,20 +1716,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>90</v>
@@ -1847,83 +1748,83 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -1932,20 +1833,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>90</v>
@@ -1962,83 +1863,83 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -2047,17 +1948,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>90</v>
@@ -2079,83 +1980,83 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -2164,23 +2065,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>109</v>
@@ -2196,26 +2097,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>113</v>
@@ -2227,52 +2128,52 @@
         <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2285,19 +2186,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>119</v>
@@ -2313,83 +2214,83 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -2402,19 +2303,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>127</v>
@@ -2430,83 +2331,83 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -2519,19 +2420,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>135</v>
@@ -2547,83 +2448,83 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -2636,19 +2537,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>90</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>135</v>
@@ -2666,83 +2567,83 @@
         <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>145</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -2751,20 +2652,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>90</v>
@@ -2785,62 +2686,62 @@
         <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>101</v>
@@ -2849,10 +2750,10 @@
         <v>152</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>153</v>
@@ -2861,7 +2762,7 @@
         <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -2870,17 +2771,17 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>90</v>
@@ -2902,26 +2803,26 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>160</v>
@@ -2933,25 +2834,25 @@
         <v>162</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>89</v>
@@ -2978,7 +2879,7 @@
         <v>168</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -2987,17 +2888,17 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>90</v>
@@ -3019,26 +2920,26 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>160</v>
@@ -3050,25 +2951,25 @@
         <v>174</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>89</v>
@@ -3104,23 +3005,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>156</v>
@@ -3136,222 +3037,220 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>184</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>180</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AN14" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="AO14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>156</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X15" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>90</v>
@@ -3360,117 +3259,115 @@
         <v>156</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>90</v>
@@ -3479,102 +3376,102 @@
         <v>156</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3584,77 +3481,75 @@
         <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="O18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>89</v>
@@ -3663,963 +3558,959 @@
         <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>285</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4627,19 +4518,19 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>135</v>
@@ -4648,109 +4539,109 @@
         <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>138</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>90</v>
@@ -4762,10 +4653,10 @@
         <v>135</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>138</v>
@@ -4774,665 +4665,665 @@
         <v>144</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>156</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI32" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5440,19 +5331,19 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>135</v>
@@ -5461,109 +5352,109 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>138</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>90</v>
@@ -5575,10 +5466,10 @@
         <v>135</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>138</v>
@@ -5587,105 +5478,105 @@
         <v>144</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>90</v>
@@ -5694,323 +5585,321 @@
         <v>156</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,129 +129,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Concept Domain Binding</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Attribute Binding</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -261,11 +138,19 @@
     <t>*</t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>Detailed information about conditions, problems or diagnoses. 患者の臨床状態、問題、または診断に関する詳細な情報</t>
   </si>
   <si>
-    <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.
+    <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.  
 健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(condition)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床的概念(clinical concept)。</t>
+  </si>
+  <si>
+    <t>con-3:verificationStatus」が「entered-in-error」でなく、「category」が「problem-list-item」である場合、「condition.clinicalStatus」が存在している必要があります。 {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
+con-4:もし状態が軽減された場合、臨床状態は不活動、解決、または寛解でなければなりません。 {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:verificationStatusがentered-in-errorである場合、condition.clinicalStatusは存在してはなりません。 {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -293,13 +178,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -312,16 +197,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -332,13 +217,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールセット</t>
+  </si>
+  <si>
+    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -351,19 +236,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。</t>
+  </si>
+  <si>
+    <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -386,10 +271,10 @@
     <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
+  </si>
+  <si>
+    <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -409,13 +294,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
+  </si>
+  <si>
+    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -435,30 +320,29 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -474,13 +358,13 @@
 </t>
   </si>
   <si>
-    <t>External Ids for this condition</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+    <t>この状態の外部ID。</t>
+  </si>
+  <si>
+    <t>サーバーからサーバーへ伝搬するにつれて更新され、パフォーマーまたは他のシステムによって割り当てられたビジネス識別子が、この状態に対して一定の値を保持します。</t>
+  </si>
+  <si>
+    <t>これはビジネス識別子であり、リソース識別子ではありません（[discussion]（resource.html＃identifiers）を参照）。 識別子が単一のリソースインスタンスにのみ表示されることが最善の方法ですが、ビジネス上の実践によっては、同じ識別子を持つ複数のリソースインスタンスが存在する場合があります。 たとえば、複数の患者と個人リソースインスタンスが同じ社会保険番号を共有する場合があります。</t>
   </si>
   <si>
     <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
@@ -505,17 +389,17 @@
     <t>active | recurrence | relapse | inactive | remission | resolved （アクティブ | 再発 | 再燃 | インアクティブ | 寛解 | 完治）</t>
   </si>
   <si>
-    <t>The clinical status of the condition.
+    <t>The clinical status of the condition.  
 この患者状態の臨床的ステータス（アクティブか否かなど）</t>
   </si>
   <si>
-    <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
+    <t>データ型はCodeableConceptです。なぜなら、clinicalStatusには一定の臨床判断が含まれるため、必要なFHIR値セットが許容するよりもさらに特定性が必要になる場合があるためです。例えば、SNOMEDコーディングは追加の特定性を許容する場合があります。</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>The clinical status of the condition or diagnosis.</t>
+    <t>病態や診断の臨床状態。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-clinical|4.0.1</t>
@@ -547,15 +431,15 @@
     <t>unconfirmed | provisional | differential | confirmed | refuted | entered-in-error（十分に確認されていない | 暫定的 | 鑑別的 | 十分な根拠で存在 | 十分な根拠で否定 | 誤記載）</t>
   </si>
   <si>
-    <t>The verification status to support the clinical status of the condition.
+    <t>The verification status to support the clinical status of the condition.  
  この患者状態が存在するかどうかの検証状況。</t>
   </si>
   <si>
-    <t>verificationStatus is not required.  For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.
-The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
-  </si>
-  <si>
-    <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
+    <t>検証状態は必須ではありません。例えば、救急治療室で患者が腹痛を訴えた場合、一般的には検証状態が必要ないでしょう。
+データ型はCodeableConceptであり、検証状態には臨床的な判断が必要なため、必要なFHIR値のセットよりも詳細な仕様が必要になる場合があります。例えば、SNOMEDのコーディングではさらに詳細な情報を含むことができます。</t>
+  </si>
+  <si>
+    <t>状態や診断の臨床状況を支持または拒否するための検証状況</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.1</t>
@@ -584,10 +468,10 @@
     <t>problem-list-item | encounter-diagnosis（プロブレムリスト | 一時的な診断）</t>
   </si>
   <si>
-    <t>A category assigned to the condition.</t>
-  </si>
-  <si>
-    <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
+    <t>状態に割り当てられたカテゴリー。</t>
+  </si>
+  <si>
+    <t>分類はしばしば文脈に強く依存しており、他の文脈では区別が不十分であるか、あまり役に立たないように見えることがあります。</t>
   </si>
   <si>
     <t>extensible</t>
@@ -614,13 +498,13 @@
     <t>Subjective severity of condition. この患者状態の重症度。このプロファイルは、HL70421 Severity of Illness Codeで表現</t>
   </si>
   <si>
-    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.
+    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.  
 医療者によって評価されたこの患者状態の重症度。</t>
   </si>
   <si>
-    <t>Coding of the severity with a terminology is preferred, where possible.
-可能な限り、ターミノロジを用いて重症度をコーディングすることが好ましい。
- このプロファイルではHL70421 Severity of Illness Code（MI 軽度, MO 中度, SE 重度）を採用。</t>
+    <t>Coding of the severity with a terminology is preferred, where possible.  
+可能な限り、ターミノロジを用いて重症度をコーディングすることが好ましい。  
+このプロファイルではHL70421 Severity of Illness Code（MI 軽度, MO 中度, SE 重度）を採用。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ConditionSeverity_VS</t>
@@ -651,7 +535,7 @@
     <t>Identification of the condition, problem or diagnosis. この患者状態の識別コード</t>
   </si>
   <si>
-    <t>Identification of the condition, problem or diagnosis.</t>
+    <t>状態、問題、診断の特定。</t>
   </si>
   <si>
     <t>0..1 to account for primarily narrative only resources.</t>
@@ -660,7 +544,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Identification of the condition or diagnosis.</t>
+    <t>状態や診断の特定</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -699,13 +583,13 @@
     <t>Anatomical location, if relevant. もし関連するのであれば、その人体部位</t>
   </si>
   <si>
-    <t>The anatomical location where this condition manifests itself.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
+    <t>この症状が現れる解剖学的位置。</t>
+  </si>
+  <si>
+    <t>Condition.code」で暗黙的に表現されない場合にのみ使用します。ユースケースがBodySiteリソースから属性を必要とする場合（例えば、別々に識別して追跡するために）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用してください。概要コードであることも、位置の非常に正確な定義への参照であることもあります。</t>
+  </si>
+  <si>
+    <t>解剖学的位置を記述するコード。左右対称性を含む場合があります。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
@@ -734,7 +618,7 @@
     <t>Who has the condition? 誰がこの状態を有するか</t>
   </si>
   <si>
-    <t>Indicates the patient or group who the condition record is associated with.</t>
+    <t>その病状記録が関連する患者またはグループを示します。</t>
   </si>
   <si>
     <t>Group is typically used for veterinary or public health use cases.</t>
@@ -762,11 +646,11 @@
     <t>Encounter created as part of. この患者状態の記録が作成された受療の状況（外来、入院、救急、在宅など）</t>
   </si>
   <si>
-    <t>The Encounter during which this Condition was created or to which the creation of this record is tightly associated.
+    <t>The Encounter during which this Condition was created or to which the creation of this record is tightly associated.  
 この患者状態の記録やレコード作成に関連する受療の状況（外来、入院、救急、在宅など）</t>
   </si>
   <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. This record indicates the encounter this particular record is associated with.  In the case of a "new" diagnosis reflecting ongoing/revised information about the condition, this might be distinct from the first encounter in which the underlying condition was first "known".</t>
+    <t>通常、イベントが発生したEncounter（診察、受診、入退院など）の中で行われることが多いですが、公式的にEncounter（診察、受診、入退院など）が完了する前または後に開始される場合がありますが、それでもEncounter（診察、受診、入退院など）の文脈に関連する活動があります。この記録は、この特定の記録が関連付けられた出来事を示します。 「新しい」診断が、継続的に修正された情報を反映する場合、これは最初に患者が変化に気づいた最初のEncounter（診察、受診、入退院など）とは異なる場合があります。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -791,11 +675,11 @@
     <t>Estimated or actual date,  date-time, or age. この患者状態のオンセット。推定もしくは実際の日付、日時、年齢</t>
   </si>
   <si>
-    <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.
+    <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.  
 臨床医の判断における、本状態が始まったと推定される、または実際に始まった日または日時。</t>
   </si>
   <si>
-    <t>Age is generally used when the patient reports an age at which the Condition began to occur.
+    <t>Age is generally used when the patient reports an age at which the Condition began to occur.  
 年齢は一般的に、患者が症状が発生し始めた年齢を報告したケースで使用される。</t>
   </si>
   <si>
@@ -817,10 +701,10 @@
     <t>When in resolution/remission. この状態はいつ治癒／寛解／軽快したか</t>
   </si>
   <si>
-    <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.</t>
-  </si>
-  <si>
-    <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.</t>
+    <t>その状態が解消された日付または予想日。これは、「寛解」と呼ばれます。「寛解」または「解決」と関連付けられた多くの意味のオーバーロードのため、「寛解」と呼ばれます。状態は実際には解決されることはありませんが、緩和することができます。</t>
+  </si>
+  <si>
+    <t>解決」と「寛解」の間に明確な区別はないため、多くの場合、区別が明確ではありません。患者が症状が収まった年齢を報告した場合、年齢が一般的に使用されます。解消要素がない場合、状態が解決したのか、寛解に入ったのかはわかりません。アプリケーションやユーザーは、一般的に条件が有効であると仮定する必要があります。解消文字列が存在する場合、条件が収束したことを意味します。</t>
   </si>
   <si>
     <t xml:space="preserve">con-4
@@ -843,7 +727,7 @@
     <t>Date record was first recorded. この患者状態が初めて記録された日時</t>
   </si>
   <si>
-    <t>The recordedDate represents when this particular Condition record was created in the system, which is often a system-generated date.
+    <t>The recordedDate represents when this particular Condition record was created in the system, which is often a system-generated date.  
 この患者状態の記録がシステムで作成された日時を表し、多くの場合、システムが生成した日付である。</t>
   </si>
   <si>
@@ -866,7 +750,7 @@
     <t>Who recorded the condition. 誰がこの患者状態を記録したか</t>
   </si>
   <si>
-    <t>Individual who recorded the record and takes responsibility for its content.
+    <t>Individual who recorded the record and takes responsibility for its content.  
 この患者状態を記録しその内容に責任を持つ個人。</t>
   </si>
   <si>
@@ -886,7 +770,7 @@
     <t>Person who asserts this condition. この患者状態の情報源</t>
   </si>
   <si>
-    <t>Individual who is making the condition statement.
+    <t>Individual who is making the condition statement.  
 この患者状態に関する情報の発生源または取得元。</t>
   </si>
   <si>
@@ -909,12 +793,12 @@
     <t>Stage/grade, usually assessed formally. この患者状態のステージやグレード。通常は正式に評価されたもの</t>
   </si>
   <si>
-    <t>Clinical stage or grade of a condition. May include formal severity assessments.
+    <t>Clinical stage or grade of a condition. May include formal severity assessments.  
 病状の臨床病期またはグレード。正式な重症度評価を含む場合がある。</t>
   </si>
   <si>
-    <t>con-1:Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>con-1:ステージには要約または評価が必要です。 {summary.exists() or assessment.exists()}
+ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage/grade"]</t>
@@ -927,10 +811,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -942,7 +826,7 @@
     <t>Condition.stage.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -955,11 +839,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>認識されなくても無視できない拡張機能</t>
+  </si>
+  <si>
+    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -968,13 +852,13 @@
     <t>Condition.stage.summary</t>
   </si>
   <si>
-    <t>Simple summary (disease specific)</t>
-  </si>
-  <si>
-    <t>A simple summary of the stage such as "Stage 3". The determination of the stage is disease-specific.</t>
-  </si>
-  <si>
-    <t>Codes describing condition stages (e.g. Cancer stages).</t>
+    <t>簡単な要約（病気特有のもの）</t>
+  </si>
+  <si>
+    <t>ステージ3」といった、単純なステージの概要。ステージの決定は病気によって異なります。</t>
+  </si>
+  <si>
+    <t>状態段階を説明するコード（例：がんの段階）</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
@@ -994,10 +878,10 @@
 </t>
   </si>
   <si>
-    <t>Formal record of assessment</t>
-  </si>
-  <si>
-    <t>Reference to a formal record of the evidence on which the staging assessment is based.</t>
+    <t>「評価の公式記録」(Hyōka no kōshiki kiroku)</t>
+  </si>
+  <si>
+    <t>ステージング評価の根拠となる正式な証拠記録への参照。</t>
   </si>
   <si>
     <t>.self</t>
@@ -1006,13 +890,13 @@
     <t>Condition.stage.type</t>
   </si>
   <si>
-    <t>Kind of staging</t>
-  </si>
-  <si>
-    <t>The kind of staging, such as pathological or clinical staging.</t>
-  </si>
-  <si>
-    <t>Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
+    <t>"演出の種類" (Enshutsu no shurui)</t>
+  </si>
+  <si>
+    <t>病理的ステージングや臨床ステージングといった種類のステージング</t>
+  </si>
+  <si>
+    <t>状態分類を表すコード（例：臨床的または病理学的）。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
@@ -1027,15 +911,15 @@
     <t>Supporting evidence. 患者状態の存在に関する根拠</t>
   </si>
   <si>
-    <t>Supporting evidence / manifestations that are the basis of the Condition's verification status, such as evidence that confirmed or refuted the condition.
+    <t>Supporting evidence / manifestations that are the basis of the Condition's verification status, such as evidence that confirmed or refuted the condition.  
 患者状態を確認または否定した証拠など、状態の検証ステータスの裏付けとなる症状や兆候。</t>
   </si>
   <si>
-    <t>The evidence may be a simple list of coded symptoms/manifestations, or references to observations or formal assessments, or both.</t>
-  </si>
-  <si>
-    <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>証拠は、コード化された症状/症状の簡単なリスト、または観察や正式な評価への言及、またはその両方である可能性があります。</t>
+  </si>
+  <si>
+    <t>con-2:証拠にはコードまたは詳細が必要です。 {code.exists() or detail.exists()}
+ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=SPRT].target[classCode=OBS, moodCode=EVN]</t>
@@ -1053,13 +937,13 @@
     <t>Condition.evidence.code</t>
   </si>
   <si>
-    <t>Manifestation/symptom</t>
-  </si>
-  <si>
-    <t>A manifestation or symptom that led to the recording of this condition.</t>
-  </si>
-  <si>
-    <t>Codes that describe the manifestation or symptoms of a condition.</t>
+    <t>表れ/症状</t>
+  </si>
+  <si>
+    <t>この状態の記録に至った兆候や症状。</t>
+  </si>
+  <si>
+    <t>症状や現れ方を記述するコード。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
@@ -1085,10 +969,10 @@
 </t>
   </si>
   <si>
-    <t>Supporting information found elsewhere</t>
-  </si>
-  <si>
-    <t>Links to other relevant information, including pathology reports.</t>
+    <t>別の場所で見つかったサポート情報</t>
+  </si>
+  <si>
+    <t>その他関連情報、病理検査報告書などのリンク。</t>
   </si>
   <si>
     <t>Condition.note</t>
@@ -1101,7 +985,7 @@
     <t>Additional information about the Condition. この患者状態に関する追加情報</t>
   </si>
   <si>
-    <t>Additional information about the Condition. This is a general notes/comments entry for description of the Condition, its diagnosis and prognosis.
+    <t>Additional information about the Condition. This is a general notes/comments entry for description of the Condition, its diagnosis and prognosis.  
 この患者状態に関する追加情報。これは、状態の説明、診断、予後に関するメモやコメントである。</t>
   </si>
   <si>
@@ -1233,10 +1117,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1418,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AP37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1428,4478 +1312,4463 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="185.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.1484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.6171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="68.20703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="19.62890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="68.20703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="11.54296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AN1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>78</v>
+      <c r="AO1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP3" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP4" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP5" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F6" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP6" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP7" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP8" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP9" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
+      </c>
+      <c r="AP10" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
+      </c>
+      <c r="AP11" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>179</v>
+        <v>150</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="Z14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AM14" t="s" s="2">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>199</v>
+        <v>173</v>
+      </c>
+      <c r="AP15" t="s" s="2">
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="N16" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>213</v>
+        <v>38</v>
+      </c>
+      <c r="AP16" t="s" s="2">
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>222</v>
+        <v>193</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="N18" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
+      </c>
+      <c r="AP18" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>234</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>216</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>247</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
+      </c>
+      <c r="AP20" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>243</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
+      </c>
+      <c r="AP21" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>272</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>279</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP25" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP27" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>295</v>
+        <v>117</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>140</v>
+        <v>264</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>298</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>307</v>
+        <v>117</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>274</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>303</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>309</v>
+        <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>313</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>315</v>
+        <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>279</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>316</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>320</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP32" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP33" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>79</v>
+      <c r="AP35" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>328</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>329</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>331</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>335</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>334</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="348">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,132 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Concept Domain Binding</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
     <t/>
@@ -1302,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP37"/>
+  <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1313,11 +1439,13 @@
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="185.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1325,4450 +1453,4577 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="35.1484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.6171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="19.62890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="68.20703125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="11.54296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AN1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AO1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP1" t="s" s="2">
-        <v>38</v>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>55</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>38</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>38</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>117</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>38</v>
+        <v>334</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
@@ -362,7 +362,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -374,7 +374,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -420,7 +420,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -1004,7 +1004,7 @@
 </t>
   </si>
   <si>
-    <t>「評価の公式記録」(Hyōka no kōshiki kiroku)</t>
+    <t>「評価の公式記録」</t>
   </si>
   <si>
     <t>ステージング評価の根拠となる正式な証拠記録への参照。</t>

--- a/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-condition.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
